--- a/scimagojr/scimagojr_2005.xlsx
+++ b/scimagojr/scimagojr_2005.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="243">
   <si>
     <t>Rank</t>
   </si>
@@ -176,12 +176,12 @@
     <t>Hungary</t>
   </si>
   <si>
+    <t>Ireland</t>
+  </si>
+  <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -251,18 +251,18 @@
     <t>Algeria</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Jordan</t>
   </si>
   <si>
     <t>Estonia</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -293,12 +293,12 @@
     <t>Latvia</t>
   </si>
   <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -467,24 +467,24 @@
     <t>Kyrgyzstan</t>
   </si>
   <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
@@ -512,30 +512,30 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>Honduras</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Greenland</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
     <t>Mauritania</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
@@ -551,24 +551,24 @@
     <t>Faroe Islands</t>
   </si>
   <si>
+    <t>Haïti</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
-    <t>Haïti</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>Reunion</t>
   </si>
   <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -578,39 +578,39 @@
     <t>Netherlands Antilles</t>
   </si>
   <si>
+    <t>Democratic Republic Congo</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
   </si>
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
     <t>Grenada</t>
   </si>
   <si>
     <t>Bahamas</t>
   </si>
   <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Democratic Republic Congo</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
@@ -629,24 +629,24 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
     <t>Maldives</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
@@ -665,43 +665,46 @@
     <t>Montserrat</t>
   </si>
   <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Comoros</t>
+    <t>American Samoa</t>
   </si>
   <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
     <t>Aruba</t>
   </si>
   <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>Gibraltar</t>
   </si>
   <si>
-    <t>Svalbard and Jan Mayen</t>
+    <t>Timor-Leste</t>
   </si>
   <si>
     <t>Cape Verde</t>
@@ -713,31 +716,31 @@
     <t>Nauru</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
   </si>
   <si>
     <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Vatican City State</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
   </si>
   <si>
     <t>Norfolk Island</t>
@@ -834,7 +837,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -884,22 +887,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>520337</v>
+        <v>524695</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>466440</v>
+        <v>467557</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>22012960</v>
+        <v>24319140</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>9403504</v>
+        <v>10108859</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>42.31</v>
+        <v>46.35</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -913,22 +916,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>171437</v>
+        <v>170961</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>170275</v>
+        <v>170016</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2447750</v>
+        <v>2660475</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1286205</v>
+        <v>1384199</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.28</v>
+        <v>15.56</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -942,22 +945,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>140468</v>
+        <v>141415</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>118890</v>
+        <v>119228</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5643744</v>
+        <v>6261763</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1169712</v>
+        <v>1251918</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>40.18</v>
+        <v>44.28</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -971,22 +974,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>128016</v>
+        <v>128047</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>123623</v>
+        <v>123895</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3096642</v>
+        <v>3372328</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>729598</v>
+        <v>763528</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>24.19</v>
+        <v>26.34</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1000,22 +1003,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>125039</v>
+        <v>125454</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>115762</v>
+        <v>116360</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4362996</v>
+        <v>4783783</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>959936</v>
+        <v>1012211</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>34.89</v>
+        <v>38.13</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1029,22 +1032,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>85146</v>
+        <v>85234</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>79826</v>
+        <v>80014</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2993854</v>
+        <v>3283171</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>567742</v>
+        <v>596687</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>35.16</v>
+        <v>38.52</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1058,22 +1061,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>71949</v>
+        <v>72277</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>65013</v>
+        <v>65203</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2910417</v>
+        <v>3217902</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>466330</v>
+        <v>494695</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>40.45</v>
+        <v>44.52</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1087,22 +1090,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>65320</v>
+        <v>65326</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>60529</v>
+        <v>60666</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2252834</v>
+        <v>2466418</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>451287</v>
+        <v>478300</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>34.49</v>
+        <v>37.76</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1116,22 +1119,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>49767</v>
+        <v>49804</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>45837</v>
+        <v>45915</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1597232</v>
+        <v>1755302</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>321416</v>
+        <v>338417</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>32.09</v>
+        <v>35.24</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1145,22 +1148,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>47571</v>
+        <v>47864</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>42600</v>
+        <v>42773</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1807547</v>
+        <v>2019264</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>334415</v>
+        <v>357486</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>38</v>
+        <v>42.19</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1174,22 +1177,22 @@
         <v>12</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>41608</v>
+        <v>41631</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>39080</v>
+        <v>39181</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>914958</v>
+        <v>1019564</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>300367</v>
+        <v>336022</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>21.99</v>
+        <v>24.49</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1203,22 +1206,22 @@
         <v>25</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>40153</v>
+        <v>40164</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>39469</v>
+        <v>39504</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>535955</v>
+        <v>587158</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>148777</v>
+        <v>159287</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>13.35</v>
+        <v>14.62</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1232,22 +1235,22 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>38202</v>
+        <v>38142</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>37484</v>
+        <v>37556</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>941847</v>
+        <v>1027160</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>160703</v>
+        <v>167095</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>24.65</v>
+        <v>26.93</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1261,22 +1264,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>37750</v>
+        <v>37871</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>34387</v>
+        <v>34480</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1839804</v>
+        <v>2036609</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>245591</v>
+        <v>257814</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>48.74</v>
+        <v>53.78</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1290,22 +1293,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>27348</v>
+        <v>27360</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>26300</v>
+        <v>26373</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>702694</v>
+        <v>770743</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>210085</v>
+        <v>224617</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>25.69</v>
+        <v>28.17</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1319,22 +1322,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>26769</v>
+        <v>26855</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>24681</v>
+        <v>24744</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1374780</v>
+        <v>1508606</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>143904</v>
+        <v>150179</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>51.36</v>
+        <v>56.18</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1348,22 +1351,22 @@
         <v>12</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>26130</v>
+        <v>26079</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>25440</v>
+        <v>25468</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>644889</v>
+        <v>710861</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>107888</v>
+        <v>111196</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>24.68</v>
+        <v>27.26</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1377,22 +1380,22 @@
         <v>14</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>25509</v>
+        <v>25588</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>23653</v>
+        <v>23692</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1162343</v>
+        <v>1278626</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>140844</v>
+        <v>147252</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>45.57</v>
+        <v>49.97</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1406,22 +1409,22 @@
         <v>25</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>25311</v>
+        <v>25338</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>24446</v>
+        <v>24491</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>450414</v>
+        <v>491948</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>96661</v>
+        <v>101560</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>17.8</v>
+        <v>19.42</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1435,22 +1438,22 @@
         <v>35</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>21029</v>
+        <v>20967</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>19951</v>
+        <v>19965</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>472229</v>
+        <v>526565</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>94068</v>
+        <v>101392</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>22.46</v>
+        <v>25.11</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1464,22 +1467,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>20674</v>
+        <v>20724</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>19179</v>
+        <v>19219</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>890322</v>
+        <v>979622</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>95645</v>
+        <v>99343</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>43.06</v>
+        <v>47.27</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1493,22 +1496,22 @@
         <v>35</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>15557</v>
+        <v>15566</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>14347</v>
+        <v>14357</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>631011</v>
+        <v>697791</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>70863</v>
+        <v>74795</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>40.56</v>
+        <v>44.83</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1522,22 +1525,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>14720</v>
+        <v>14766</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>13563</v>
+        <v>13617</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>558305</v>
+        <v>615920</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>58415</v>
+        <v>61044</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>37.93</v>
+        <v>41.71</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1551,22 +1554,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>13592</v>
+        <v>13619</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>12521</v>
+        <v>12555</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>690433</v>
+        <v>763998</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>74773</v>
+        <v>78188</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>50.8</v>
+        <v>56.1</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1580,22 +1583,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>13332</v>
+        <v>13353</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>12567</v>
+        <v>12594</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>508277</v>
+        <v>559302</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>63973</v>
+        <v>66746</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>38.12</v>
+        <v>41.89</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1609,22 +1612,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>12830</v>
+        <v>12825</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>11966</v>
+        <v>11989</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>382506</v>
+        <v>421440</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>49492</v>
+        <v>52064</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>29.81</v>
+        <v>32.86</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1638,22 +1641,22 @@
         <v>12</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>12794</v>
+        <v>12798</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>11957</v>
+        <v>11975</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>464684</v>
+        <v>514897</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>50078</v>
+        <v>52258</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>36.32</v>
+        <v>40.23</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1667,22 +1670,22 @@
         <v>29</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>11455</v>
+        <v>11494</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>10981</v>
+        <v>11047</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>265960</v>
+        <v>292079</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>48209</v>
+        <v>51787</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>23.22</v>
+        <v>25.41</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1696,22 +1699,22 @@
         <v>12</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>11156</v>
+        <v>11170</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>10443</v>
+        <v>10458</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>392376</v>
+        <v>429976</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>32887</v>
+        <v>33969</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>35.17</v>
+        <v>38.49</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1725,22 +1728,22 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>10861</v>
+        <v>10904</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>9860</v>
+        <v>9876</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>459570</v>
+        <v>510457</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>58982</v>
+        <v>62687</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>42.31</v>
+        <v>46.81</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1754,22 +1757,22 @@
         <v>25</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10705</v>
+        <v>10743</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>10437</v>
+        <v>10467</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>227935</v>
+        <v>248124</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>42203</v>
+        <v>43926</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>21.29</v>
+        <v>23.1</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1783,22 +1786,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>9245</v>
+        <v>9305</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>8166</v>
+        <v>8216</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>346573</v>
+        <v>386975</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>40035</v>
+        <v>42450</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>37.49</v>
+        <v>41.59</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1812,22 +1815,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>8601</v>
+        <v>8620</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>8197</v>
+        <v>8228</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>280954</v>
+        <v>309078</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>43004</v>
+        <v>45059</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>32.67</v>
+        <v>35.86</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1841,22 +1844,22 @@
         <v>35</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>8472</v>
+        <v>8464</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>8269</v>
+        <v>8283</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>164369</v>
+        <v>181438</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>55172</v>
+        <v>58782</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>19.4</v>
+        <v>21.44</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1870,22 +1873,22 @@
         <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>8206</v>
+        <v>8309</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>7473</v>
+        <v>7560</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>249723</v>
+        <v>276109</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>45024</v>
+        <v>48735</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>30.43</v>
+        <v>33.23</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1899,22 +1902,22 @@
         <v>25</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>8049</v>
+        <v>8051</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>7649</v>
+        <v>7662</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>218661</v>
+        <v>238777</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>26111</v>
+        <v>27312</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>27.17</v>
+        <v>29.66</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1925,25 +1928,25 @@
         <v>53</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>7611</v>
+        <v>7655</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>7494</v>
+        <v>6852</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>79411</v>
+        <v>289989</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>19652</v>
+        <v>26910</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>10.43</v>
+        <v>37.88</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>323</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1954,25 +1957,25 @@
         <v>54</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>7602</v>
+        <v>7629</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>6833</v>
+        <v>7519</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>264707</v>
+        <v>87012</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>25839</v>
+        <v>21043</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>34.82</v>
+        <v>11.41</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1986,22 +1989,22 @@
         <v>29</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>7117</v>
+        <v>7128</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>6760</v>
+        <v>6784</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>201260</v>
+        <v>221945</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>37601</v>
+        <v>40600</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>28.28</v>
+        <v>31.14</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2015,22 +2018,22 @@
         <v>12</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>5151</v>
+        <v>5194</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>4952</v>
+        <v>5001</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>157855</v>
+        <v>173774</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>18316</v>
+        <v>19760</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>30.65</v>
+        <v>33.46</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2044,22 +2047,22 @@
         <v>25</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>4919</v>
+        <v>4929</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>4803</v>
+        <v>4809</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>76877</v>
+        <v>83750</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>13680</v>
+        <v>14291</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>15.63</v>
+        <v>16.99</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2073,22 +2076,22 @@
         <v>59</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>4859</v>
+        <v>4855</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>4714</v>
+        <v>4722</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>101051</v>
+        <v>112649</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>17837</v>
+        <v>19626</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>20.8</v>
+        <v>23.2</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2102,22 +2105,22 @@
         <v>29</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>4101</v>
+        <v>4098</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>3924</v>
+        <v>3929</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>126914</v>
+        <v>139911</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>21471</v>
+        <v>22715</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>30.95</v>
+        <v>34.14</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2131,22 +2134,22 @@
         <v>25</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>3894</v>
+        <v>3898</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>64440</v>
+        <v>70848</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>10992</v>
+        <v>11619</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>16.03</v>
+        <v>17.63</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2160,22 +2163,22 @@
         <v>25</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>3572</v>
+        <v>3579</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>3480</v>
+        <v>3486</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>66923</v>
+        <v>73052</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>9821</v>
+        <v>10180</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>18.74</v>
+        <v>20.41</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2192,19 +2195,19 @@
         <v>3557</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>3404</v>
+        <v>3411</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>70066</v>
+        <v>79138</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>13728</v>
+        <v>14875</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>19.7</v>
+        <v>22.25</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2218,22 +2221,22 @@
         <v>25</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>3306</v>
+        <v>3311</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>79007</v>
+        <v>86570</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>11789</v>
+        <v>12272</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>23.13</v>
+        <v>25.32</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2247,22 +2250,22 @@
         <v>25</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>3056</v>
+        <v>3062</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>2968</v>
+        <v>2975</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>50872</v>
+        <v>56249</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>6748</v>
+        <v>7130</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>16.65</v>
+        <v>18.37</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2276,22 +2279,22 @@
         <v>12</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>2963</v>
+        <v>2954</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>47720</v>
+        <v>53231</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>10995</v>
+        <v>11861</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>16.11</v>
+        <v>18.02</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2305,22 +2308,22 @@
         <v>35</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>2528</v>
+        <v>2540</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>2410</v>
+        <v>2415</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>43234</v>
+        <v>48835</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>5865</v>
+        <v>6584</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>17.1</v>
+        <v>19.23</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2334,22 +2337,22 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>2390</v>
+        <v>2405</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>2300</v>
+        <v>2317</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>44434</v>
+        <v>49259</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>9263</v>
+        <v>10299</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>18.59</v>
+        <v>20.48</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2363,22 +2366,22 @@
         <v>51</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>2176</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>45539</v>
+        <v>49870</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>7296</v>
+        <v>7740</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>20.3</v>
+        <v>22.29</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2392,22 +2395,22 @@
         <v>25</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>31097</v>
+        <v>34389</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>5522</v>
+        <v>5834</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>15.07</v>
+        <v>16.66</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2421,22 +2424,22 @@
         <v>25</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1910</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>30952</v>
+        <v>33624</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4997</v>
+        <v>5206</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>15.95</v>
+        <v>17.29</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2450,22 +2453,22 @@
         <v>29</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>38299</v>
+        <v>41456</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>3996</v>
+        <v>4084</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>19.78</v>
+        <v>21.45</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2479,22 +2482,22 @@
         <v>25</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>18926</v>
+        <v>20685</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>3050</v>
+        <v>3209</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>10.17</v>
+        <v>11.15</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2508,22 +2511,22 @@
         <v>29</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>55282</v>
+        <v>60759</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>6005</v>
+        <v>6462</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>33.75</v>
+        <v>37.03</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2537,22 +2540,22 @@
         <v>29</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>22129</v>
+        <v>23746</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>3858</v>
+        <v>3930</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>14.68</v>
+        <v>15.81</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2569,19 +2572,19 @@
         <v>1440</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>27630</v>
+        <v>31162</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>4931</v>
+        <v>5663</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>19.19</v>
+        <v>21.64</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2595,22 +2598,22 @@
         <v>51</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>20257</v>
+        <v>22613</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>4071</v>
+        <v>4432</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>15.23</v>
+        <v>17.04</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2621,25 +2624,25 @@
         <v>78</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1255</v>
+        <v>1266</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>22250</v>
+        <v>34876</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>2171</v>
+        <v>4539</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>17.73</v>
+        <v>27.55</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2650,25 +2653,25 @@
         <v>79</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1246</v>
+        <v>1259</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1164</v>
+        <v>1194</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>31323</v>
+        <v>25121</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3906</v>
+        <v>2341</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>25.14</v>
+        <v>19.95</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2679,25 +2682,25 @@
         <v>80</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1071</v>
+        <v>1085</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>42312</v>
+        <v>24292</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>5060</v>
+        <v>2311</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>37.74</v>
+        <v>21.79</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>346</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2708,25 +2711,25 @@
         <v>81</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>21219</v>
+        <v>46162</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>2051</v>
+        <v>5247</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>19.03</v>
+        <v>41.51</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>219</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2740,22 +2743,22 @@
         <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>26674</v>
+        <v>30006</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>3607</v>
+        <v>4017</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>25.9</v>
+        <v>29.05</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2769,22 +2772,22 @@
         <v>51</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>38732</v>
+        <v>42568</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>5416</v>
+        <v>5711</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>39.28</v>
+        <v>43.22</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2804,16 +2807,16 @@
         <v>840</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>32372</v>
+        <v>36630</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>2605</v>
+        <v>2822</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>34.62</v>
+        <v>39.18</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2827,22 +2830,22 @@
         <v>35</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>19546</v>
+        <v>21600</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1704</v>
+        <v>1780</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>20.99</v>
+        <v>23.33</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2859,19 +2862,19 @@
         <v>900</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>20115</v>
+        <v>22671</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1733</v>
+        <v>1851</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>22.35</v>
+        <v>25.19</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2885,22 +2888,22 @@
         <v>12</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>26360</v>
+        <v>29092</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>3005</v>
+        <v>3288</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>30.69</v>
+        <v>33.99</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2914,22 +2917,22 @@
         <v>29</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>30244</v>
+        <v>32960</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1369</v>
+        <v>1418</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>38.92</v>
+        <v>42.37</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2943,22 +2946,22 @@
         <v>25</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>651</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>9707</v>
+        <v>10092</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1119</v>
+        <v>1194</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>13.99</v>
+        <v>14.25</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2972,22 +2975,22 @@
         <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>35700</v>
+        <v>39458</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>2663</v>
+        <v>2853</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>51.74</v>
+        <v>56.69</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3001,22 +3004,22 @@
         <v>25</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>15009</v>
+        <v>16373</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1304</v>
+        <v>1373</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>22.33</v>
+        <v>24.22</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3027,25 +3030,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>12801</v>
+        <v>17957</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1730</v>
+        <v>1488</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>20.38</v>
+        <v>27.88</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>214</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3056,25 +3059,25 @@
         <v>93</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>15890</v>
+        <v>13666</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1341</v>
+        <v>1785</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>25.34</v>
+        <v>21.76</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3088,22 +3091,22 @@
         <v>29</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>581</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>18644</v>
+        <v>19668</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>2421</v>
+        <v>2509</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>29.88</v>
+        <v>31.57</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3117,22 +3120,22 @@
         <v>29</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>573</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>20149</v>
+        <v>22435</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>2279</v>
+        <v>2492</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>33.03</v>
+        <v>36.24</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3149,19 +3152,19 @@
         <v>605</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>14725</v>
+        <v>15970</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1319</v>
+        <v>1473</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>24.34</v>
+        <v>26.4</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3175,22 +3178,22 @@
         <v>35</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>12159</v>
+        <v>13932</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>946</v>
+        <v>1032</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>23.38</v>
+        <v>26.74</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3210,16 +3213,16 @@
         <v>460</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>18390</v>
+        <v>20341</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>2707</v>
+        <v>2925</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>37</v>
+        <v>40.93</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3233,22 +3236,22 @@
         <v>51</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>10021</v>
+        <v>11168</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1994</v>
+        <v>2199</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>20.62</v>
+        <v>23.03</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3262,22 +3265,22 @@
         <v>12</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>8688</v>
+        <v>9776</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1206</v>
+        <v>1315</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>18.1</v>
+        <v>20.28</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3291,22 +3294,22 @@
         <v>12</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>4455</v>
+        <v>5088</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>875</v>
+        <v>1023</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>9.32</v>
+        <v>10.62</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3320,22 +3323,22 @@
         <v>51</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>15938</v>
+        <v>17333</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>2121</v>
+        <v>2274</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>34.65</v>
+        <v>37.44</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3349,22 +3352,22 @@
         <v>29</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>18097</v>
+        <v>20208</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1549</v>
+        <v>1659</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>40.13</v>
+        <v>44.91</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3378,22 +3381,22 @@
         <v>25</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>435</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>3428</v>
+        <v>3843</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>7.77</v>
+        <v>8.73</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3410,19 +3413,19 @@
         <v>432</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>13023</v>
+        <v>14880</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>2971</v>
+        <v>3534</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>30.15</v>
+        <v>34.44</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3439,19 +3442,19 @@
         <v>397</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>11595</v>
+        <v>12727</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1661</v>
+        <v>1871</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>29.21</v>
+        <v>32.06</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3468,19 +3471,19 @@
         <v>374</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>3542</v>
+        <v>3918</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>589</v>
+        <v>673</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>9.47</v>
+        <v>10.48</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3494,22 +3497,22 @@
         <v>51</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>345</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>9749</v>
+        <v>10683</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>769</v>
+        <v>807</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>26.71</v>
+        <v>29.43</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3529,16 +3532,16 @@
         <v>350</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>6797</v>
+        <v>7258</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>968</v>
+        <v>1002</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>19.25</v>
+        <v>20.56</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3552,22 +3555,22 @@
         <v>14</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>10644</v>
+        <v>11715</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>32.06</v>
+        <v>34.25</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3581,22 +3584,22 @@
         <v>25</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>314</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>5815</v>
+        <v>6400</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>17.78</v>
+        <v>19.63</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3610,22 +3613,22 @@
         <v>25</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>3636</v>
+        <v>4085</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>11.51</v>
+        <v>12.85</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3639,22 +3642,22 @@
         <v>29</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>11650</v>
+        <v>12364</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>38.7</v>
+        <v>41.21</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3668,22 +3671,22 @@
         <v>29</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>266</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>5718</v>
+        <v>6349</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>19.52</v>
+        <v>21.45</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3703,16 +3706,16 @@
         <v>261</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>9059</v>
+        <v>10038</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>926</v>
+        <v>986</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>31.79</v>
+        <v>35.22</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3726,22 +3729,22 @@
         <v>35</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>258</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>4397</v>
+        <v>4971</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>16.29</v>
+        <v>18.55</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3761,16 +3764,16 @@
         <v>249</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>5673</v>
+        <v>6371</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>21.33</v>
+        <v>23.95</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3784,22 +3787,22 @@
         <v>51</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>238</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>11399</v>
+        <v>12883</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>45.41</v>
+        <v>50.92</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3816,19 +3819,19 @@
         <v>243</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>3299</v>
+        <v>3758</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>13.58</v>
+        <v>15.47</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3842,22 +3845,22 @@
         <v>29</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>4618</v>
+        <v>5194</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>19.4</v>
+        <v>21.92</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3877,16 +3880,16 @@
         <v>220</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>3157</v>
+        <v>3421</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>13.73</v>
+        <v>14.87</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3900,22 +3903,22 @@
         <v>29</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>192</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>12557</v>
+        <v>14011</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1268</v>
+        <v>1367</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>58.95</v>
+        <v>66.4</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3935,16 +3938,16 @@
         <v>191</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>2775</v>
+        <v>3221</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>13.67</v>
+        <v>15.87</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3964,16 +3967,16 @@
         <v>183</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>4344</v>
+        <v>4794</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>22.16</v>
+        <v>24.46</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3987,22 +3990,22 @@
         <v>51</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>182</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>3348</v>
+        <v>3652</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>17.44</v>
+        <v>18.92</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4022,16 +4025,16 @@
         <v>169</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>5644</v>
+        <v>6107</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>673</v>
+        <v>710</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>29.55</v>
+        <v>31.97</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4051,16 +4054,16 @@
         <v>177</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>7065</v>
+        <v>7988</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>753</v>
+        <v>816</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>37.58</v>
+        <v>42.49</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4074,22 +4077,22 @@
         <v>14</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>6093</v>
+        <v>6925</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>35.63</v>
+        <v>40.74</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4109,16 +4112,16 @@
         <v>157</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>5166</v>
+        <v>5861</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>31.12</v>
+        <v>35.31</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4138,16 +4141,16 @@
         <v>149</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>3753</v>
+        <v>4161</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>23.46</v>
+        <v>26.01</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4161,22 +4164,22 @@
         <v>51</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>3768</v>
+        <v>4125</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>24.79</v>
+        <v>26.96</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4190,22 +4193,22 @@
         <v>51</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>3576</v>
+        <v>3942</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>615</v>
+        <v>676</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>25.91</v>
+        <v>28.36</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4219,22 +4222,22 @@
         <v>51</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1505</v>
+        <v>1677</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>62</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>11.32</v>
+        <v>12.51</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4254,16 +4257,16 @@
         <v>127</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>3299</v>
+        <v>3711</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>25.18</v>
+        <v>28.33</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4277,22 +4280,22 @@
         <v>51</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>120</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>5361</v>
+        <v>6304</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>41.88</v>
+        <v>49.64</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4312,16 +4315,16 @@
         <v>113</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>3716</v>
+        <v>4097</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>29.26</v>
+        <v>32.26</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4335,22 +4338,22 @@
         <v>51</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>4466</v>
+        <v>4872</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>36.02</v>
+        <v>38.98</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4370,16 +4373,16 @@
         <v>109</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>2558</v>
+        <v>2921</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>21.14</v>
+        <v>24.14</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4393,22 +4396,22 @@
         <v>51</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>2944</v>
+        <v>3457</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>26.29</v>
+        <v>30.59</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4428,16 +4431,16 @@
         <v>106</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>4592</v>
+        <v>5032</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>41.37</v>
+        <v>45.33</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4457,16 +4460,16 @@
         <v>105</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>3279</v>
+        <v>3759</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>29.81</v>
+        <v>34.17</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4486,16 +4489,16 @@
         <v>97</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>3289</v>
+        <v>3589</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>31.32</v>
+        <v>34.18</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4509,22 +4512,22 @@
         <v>51</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>3876</v>
+        <v>4263</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>37.27</v>
+        <v>40.6</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4544,16 +4547,16 @@
         <v>90</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>3931</v>
+        <v>4374</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>40.11</v>
+        <v>44.63</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4567,22 +4570,22 @@
         <v>29</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>72</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>2289</v>
+        <v>2500</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>23.36</v>
+        <v>25.77</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4596,22 +4599,22 @@
         <v>51</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>5580</v>
+        <v>6067</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>58.74</v>
+        <v>63.2</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4631,16 +4634,16 @@
         <v>83</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>3774</v>
+        <v>4057</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>40.15</v>
+        <v>43.16</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4654,22 +4657,22 @@
         <v>12</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>92</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>2379</v>
+        <v>2572</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>25.31</v>
+        <v>27.66</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4683,22 +4686,22 @@
         <v>12</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>84</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1221</v>
+        <v>1381</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>13.88</v>
+        <v>16.06</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4709,25 +4712,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>2513</v>
+        <v>2326</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>29.92</v>
+        <v>27.05</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4738,25 +4741,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>2123</v>
+        <v>2760</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>25.27</v>
+        <v>32.86</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4776,16 +4779,16 @@
         <v>77</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1371</v>
+        <v>1532</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>17.14</v>
+        <v>19.15</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4805,16 +4808,16 @@
         <v>61</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1278</v>
+        <v>1426</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>17.27</v>
+        <v>19.27</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4825,25 +4828,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>73</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2366</v>
+        <v>990</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>32.41</v>
+        <v>13.56</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4854,25 +4857,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>70</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>917</v>
+        <v>2624</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>12.74</v>
+        <v>35.95</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4892,16 +4895,16 @@
         <v>65</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>3261</v>
+        <v>3731</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>46.59</v>
+        <v>53.3</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4915,22 +4918,22 @@
         <v>25</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1459</v>
+        <v>1062</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>23.92</v>
+        <v>17.7</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4950,16 +4953,16 @@
         <v>57</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1360</v>
+        <v>1483</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>23.05</v>
+        <v>25.14</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4973,22 +4976,22 @@
         <v>29</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>56</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2240</v>
+        <v>2459</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>37.97</v>
+        <v>42.4</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5002,22 +5005,22 @@
         <v>12</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>686</v>
+        <v>748</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>12.25</v>
+        <v>13.12</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5037,16 +5040,16 @@
         <v>54</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1777</v>
+        <v>1950</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>31.73</v>
+        <v>34.82</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5066,16 +5069,16 @@
         <v>55</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>2410</v>
+        <v>2763</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>43.82</v>
+        <v>50.24</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5095,16 +5098,16 @@
         <v>45</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>970</v>
+        <v>1119</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>19.02</v>
+        <v>21.94</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5124,16 +5127,16 @@
         <v>48</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1097</v>
+        <v>1221</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>87</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>22.85</v>
+        <v>25.44</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5150,19 +5153,19 @@
         <v>45</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1131</v>
+        <v>1764</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>63</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>25.13</v>
+        <v>39.2</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5179,19 +5182,19 @@
         <v>45</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1572</v>
+        <v>1263</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>34.93</v>
+        <v>28.07</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5211,16 +5214,16 @@
         <v>42</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>647</v>
+        <v>700</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>15.05</v>
+        <v>16.28</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5231,25 +5234,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>714</v>
+        <v>1670</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>17.41</v>
+        <v>40.73</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5260,25 +5263,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1503</v>
+        <v>786</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>36.66</v>
+        <v>19.17</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5298,16 +5301,16 @@
         <v>38</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1166</v>
+        <v>1294</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>29.9</v>
+        <v>33.18</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5318,25 +5321,25 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>490</v>
+        <v>309</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>12.89</v>
+        <v>8.13</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5347,25 +5350,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>275</v>
+        <v>564</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>7.64</v>
+        <v>14.84</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5385,16 +5388,16 @@
         <v>34</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>803</v>
+        <v>903</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>22.31</v>
+        <v>25.08</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5414,16 +5417,16 @@
         <v>34</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>804</v>
+        <v>895</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>22.97</v>
+        <v>25.57</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5443,16 +5446,16 @@
         <v>32</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1188</v>
+        <v>1348</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>36</v>
+        <v>40.85</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5472,16 +5475,16 @@
         <v>33</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1240</v>
+        <v>1478</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>37.58</v>
+        <v>44.79</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5501,16 +5504,16 @@
         <v>28</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1661</v>
+        <v>1800</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>51.91</v>
+        <v>56.25</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5521,25 +5524,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>32</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>757</v>
+        <v>1141</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>23.66</v>
+        <v>35.66</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5550,25 +5553,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1063</v>
+        <v>853</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>34.29</v>
+        <v>26.66</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5588,16 +5591,16 @@
         <v>24</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>19.3</v>
+        <v>21.57</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5617,16 +5620,16 @@
         <v>28</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>18.41</v>
+        <v>20.62</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5637,25 +5640,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>28</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1838</v>
+        <v>766</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>65.64</v>
+        <v>27.36</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5666,25 +5669,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>28</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>673</v>
+        <v>2135</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>24.04</v>
+        <v>76.25</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5704,16 +5707,16 @@
         <v>23</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>1051</v>
+        <v>1198</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>38.93</v>
+        <v>44.37</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5727,22 +5730,22 @@
         <v>22</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>16.78</v>
+        <v>18.92</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5762,16 +5765,16 @@
         <v>25</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>732</v>
+        <v>823</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>17</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>28.15</v>
+        <v>31.65</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5788,19 +5791,19 @@
         <v>25</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>803</v>
+        <v>286</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>32.12</v>
+        <v>11.44</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5811,25 +5814,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>496</v>
+        <v>891</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>22.55</v>
+        <v>35.64</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5840,25 +5843,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>833</v>
+        <v>541</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>41.65</v>
+        <v>24.59</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5872,22 +5875,22 @@
         <v>51</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>15.8</v>
+        <v>17.05</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5907,16 +5910,16 @@
         <v>20</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G175" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>10.45</v>
+        <v>11.05</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5930,22 +5933,22 @@
         <v>29</v>
       </c>
       <c r="D176" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E176" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E176" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="F176" s="0" t="n">
-        <v>685</v>
+        <v>959</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>36.05</v>
+        <v>47.95</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5959,22 +5962,22 @@
         <v>29</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>164</v>
+        <v>784</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>9.11</v>
+        <v>41.26</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5985,25 +5988,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>659</v>
+        <v>172</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>38.76</v>
+        <v>9.56</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6014,25 +6017,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>387</v>
+        <v>120</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>22.76</v>
+        <v>7.06</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6043,22 +6046,22 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>109</v>
+        <v>433</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>6.41</v>
+        <v>25.47</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>57</v>
@@ -6078,19 +6081,19 @@
         <v>17</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>256</v>
+        <v>727</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>15.06</v>
+        <v>42.76</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6110,16 +6113,16 @@
         <v>15</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>15.5</v>
+        <v>16.94</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6139,16 +6142,16 @@
         <v>15</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>447</v>
+        <v>528</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>27.94</v>
+        <v>33</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6168,16 +6171,16 @@
         <v>15</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>17.47</v>
+        <v>19.07</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6197,16 +6200,16 @@
         <v>13</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>661</v>
+        <v>747</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>47.21</v>
+        <v>53.36</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6226,16 +6229,16 @@
         <v>14</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>36.21</v>
+        <v>39.36</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6255,16 +6258,16 @@
         <v>12</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="G187" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>32</v>
+        <v>33.67</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6284,16 +6287,16 @@
         <v>12</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>4.92</v>
+        <v>20.5</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6313,16 +6316,16 @@
         <v>10</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G189" s="0" t="n">
         <v>11</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>23.08</v>
+        <v>25.58</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6342,16 +6345,16 @@
         <v>12</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>18.92</v>
+        <v>5.67</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6362,7 +6365,7 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>11</v>
@@ -6371,16 +6374,16 @@
         <v>11</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>25.45</v>
+        <v>21.18</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6400,16 +6403,16 @@
         <v>10</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>23.45</v>
+        <v>27.27</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6420,7 +6423,7 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>11</v>
@@ -6429,16 +6432,16 @@
         <v>11</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>18.73</v>
+        <v>28.27</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6458,16 +6461,16 @@
         <v>9</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>653</v>
+        <v>755</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>65.3</v>
+        <v>75.5</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6487,16 +6490,16 @@
         <v>10</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>23</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>21.4</v>
+        <v>24</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6516,16 +6519,16 @@
         <v>9</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>12.11</v>
+        <v>14.22</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6545,16 +6548,16 @@
         <v>7</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>9.86</v>
+        <v>10.57</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6574,16 +6577,16 @@
         <v>6</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>18.71</v>
+        <v>21</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6603,16 +6606,16 @@
         <v>5</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>19.71</v>
+        <v>21.57</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6629,19 +6632,19 @@
         <v>5</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>21.8</v>
+        <v>18.2</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6661,16 +6664,16 @@
         <v>5</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6681,7 +6684,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>5</v>
@@ -6690,16 +6693,16 @@
         <v>5</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G202" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6719,16 +6722,16 @@
         <v>5</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>1.4</v>
+        <v>21</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6739,25 +6742,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>17.2</v>
+        <v>27.6</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6768,7 +6771,7 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>5</v>
@@ -6777,16 +6780,16 @@
         <v>5</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6797,7 +6800,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>5</v>
@@ -6806,16 +6809,16 @@
         <v>5</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6826,25 +6829,25 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6855,25 +6858,25 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6893,16 +6896,16 @@
         <v>4</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>695</v>
+        <v>937</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>173.75</v>
+        <v>234.25</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6913,7 +6916,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>3</v>
@@ -6922,16 +6925,16 @@
         <v>3</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>12.67</v>
+        <v>24.33</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6942,7 +6945,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>3</v>
@@ -6951,16 +6954,16 @@
         <v>3</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>29.33</v>
+        <v>13</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6980,16 +6983,16 @@
         <v>3</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>22.33</v>
+        <v>33.33</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7000,7 +7003,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>2</v>
@@ -7009,16 +7012,16 @@
         <v>2</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7029,7 +7032,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>2</v>
@@ -7038,16 +7041,16 @@
         <v>2</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7067,13 +7070,13 @@
         <v>2</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>11</v>
@@ -7087,7 +7090,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>2</v>
@@ -7096,16 +7099,16 @@
         <v>2</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7116,7 +7119,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>1</v>
@@ -7125,16 +7128,16 @@
         <v>1</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="G217" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7145,7 +7148,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>1</v>
@@ -7154,16 +7157,16 @@
         <v>1</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7174,7 +7177,7 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>1</v>
@@ -7183,16 +7186,16 @@
         <v>1</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H219" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="I219" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7203,7 +7206,7 @@
         <v>236</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>1</v>
@@ -7212,16 +7215,16 @@
         <v>1</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7232,7 +7235,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>1</v>
@@ -7241,16 +7244,16 @@
         <v>1</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7270,16 +7273,16 @@
         <v>1</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7290,7 +7293,7 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>1</v>
@@ -7308,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7328,16 +7331,16 @@
         <v>1</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7348,7 +7351,7 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>1</v>
@@ -7357,16 +7360,45 @@
         <v>1</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="I225" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
+      <c r="A226" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="I225" s="0" t="n">
-        <v>10</v>
+      <c r="G226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I226" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
